--- a/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
+++ b/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\TIMES_Kraszewski\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C740B3D6-2482-474B-83B8-23596D5D19BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759EDDB-C786-43AF-AC5D-42C575DB87B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Wartości liczbowe do potwierdzenia</t>
+  </si>
+  <si>
+    <t>Stara wersja</t>
+  </si>
+  <si>
+    <t>Propozycja</t>
+  </si>
+  <si>
+    <t>FX?</t>
   </si>
 </sst>
 </file>
@@ -3178,42 +3187,42 @@
     <xf numFmtId="0" fontId="105" fillId="45" borderId="27" xfId="1261" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="105" fillId="45" borderId="0" xfId="1261" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="45" borderId="0" xfId="1261" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="45" borderId="29" xfId="1261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="45" borderId="30" xfId="1261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="45" borderId="31" xfId="1261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="101" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="48" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="105" fillId="45" borderId="0" xfId="1261" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="45" borderId="0" xfId="1261" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="45" borderId="29" xfId="1261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="45" borderId="30" xfId="1261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="45" borderId="31" xfId="1261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1265">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4006,7 +4015,6 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
     <cellStyle name="Normal 14" xfId="792" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
@@ -4030,6 +4038,7 @@
     <cellStyle name="Normal GHG-Shade" xfId="809" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="810" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
     <cellStyle name="Normale_B2020" xfId="811" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="812" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
     <cellStyle name="Normalny 10 10" xfId="1264" xr:uid="{D40F3196-2B1F-4FFD-A53D-AA3EB1E7AA37}"/>
     <cellStyle name="Normalny 10 2" xfId="813" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
@@ -4709,7 +4718,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4747,7 +4756,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4819,7 +4828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4996,16 +5005,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="18.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="3" width="4" style="16" customWidth="1"/>
-    <col min="4" max="9" width="14.1796875" style="16" customWidth="1"/>
+    <col min="4" max="9" width="14.21875" style="16" customWidth="1"/>
     <col min="10" max="12" width="4" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="16"/>
+    <col min="13" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1">
@@ -5070,9 +5079,9 @@
       <c r="A6" s="15"/>
       <c r="B6" s="20"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
       <c r="J6" s="26"/>
       <c r="K6" s="24"/>
       <c r="L6" s="15"/>
@@ -5093,9 +5102,9 @@
       <c r="A8" s="15"/>
       <c r="B8" s="20"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24"/>
       <c r="L8" s="15"/>
@@ -5144,15 +5153,15 @@
       <c r="A14" s="15"/>
       <c r="B14" s="20"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
       <c r="J14" s="26"/>
       <c r="K14" s="24"/>
       <c r="L14" s="15"/>
@@ -5163,9 +5172,9 @@
       <c r="C15" s="25"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
       <c r="J15" s="26"/>
       <c r="K15" s="24"/>
       <c r="L15" s="15"/>
@@ -5190,16 +5199,16 @@
       <c r="A18" s="15"/>
       <c r="B18" s="20"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="26"/>
       <c r="K18" s="24"/>
       <c r="L18" s="15"/>
@@ -5210,10 +5219,10 @@
       <c r="C19" s="25"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="26"/>
       <c r="K19" s="24"/>
       <c r="L19" s="15"/>
@@ -5224,10 +5233,10 @@
       <c r="C20" s="25"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="26"/>
       <c r="K20" s="24"/>
       <c r="L20" s="15"/>
@@ -5247,10 +5256,10 @@
       <c r="A22" s="15"/>
       <c r="B22" s="20"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="32">
         <v>45078</v>
       </c>
@@ -5328,10 +5337,10 @@
       <c r="A28" s="15"/>
       <c r="B28" s="20"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="16" t="s">
         <v>24</v>
       </c>
@@ -5370,10 +5379,10 @@
       <c r="A32" s="15"/>
       <c r="B32" s="20"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="16" t="s">
         <v>24</v>
       </c>
@@ -5467,7 +5476,7 @@
       <c r="L40" s="15"/>
     </row>
     <row r="48" spans="1:12" ht="59.4" customHeight="1"/>
-    <row r="49" ht="64.25" customHeight="1"/>
+    <row r="49" ht="64.2" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D22:E22"/>
@@ -5498,14 +5507,14 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="3" width="4" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="44.36328125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" style="40" customWidth="1"/>
     <col min="7" max="9" width="4" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="40"/>
+    <col min="10" max="16384" width="9.109375" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" customHeight="1">
@@ -5530,7 +5539,7 @@
       <c r="H2" s="19"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="18.5">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="15"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
@@ -5541,20 +5550,20 @@
       <c r="H3" s="24"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" ht="18.5">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="15"/>
       <c r="B4" s="20"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="26"/>
       <c r="H4" s="24"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="18.5">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="15"/>
       <c r="B5" s="20"/>
       <c r="C5" s="25"/>
@@ -5565,20 +5574,20 @@
       <c r="H5" s="24"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" ht="18.5">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="15"/>
       <c r="B6" s="20"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="26"/>
       <c r="H6" s="24"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" ht="18.5">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="15"/>
       <c r="B7" s="20"/>
       <c r="C7" s="25"/>
@@ -5589,7 +5598,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="18.5">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="15"/>
       <c r="B8" s="20"/>
       <c r="C8" s="25"/>
@@ -5600,7 +5609,7 @@
       <c r="H8" s="24"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" ht="18.5">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="15"/>
       <c r="B9" s="20"/>
       <c r="C9" s="25"/>
@@ -5615,7 +5624,7 @@
       <c r="H9" s="24"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" ht="18.5">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="15"/>
       <c r="B10" s="20"/>
       <c r="C10" s="25"/>
@@ -5626,7 +5635,7 @@
       <c r="H10" s="24"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" ht="18.5">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="15"/>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
@@ -5637,7 +5646,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" ht="18.5">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="15"/>
       <c r="B12" s="20"/>
       <c r="C12" s="25"/>
@@ -5648,7 +5657,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5">
+    <row r="13" spans="1:9" ht="18">
       <c r="A13" s="15"/>
       <c r="B13" s="20"/>
       <c r="C13" s="25"/>
@@ -5659,7 +5668,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" ht="18.5">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="15"/>
       <c r="B14" s="20"/>
       <c r="C14" s="25"/>
@@ -5670,7 +5679,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" ht="18.5">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="15"/>
       <c r="B15" s="20"/>
       <c r="C15" s="25"/>
@@ -5681,7 +5690,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" ht="18.5">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="15"/>
       <c r="B16" s="20"/>
       <c r="C16" s="25"/>
@@ -5692,7 +5701,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="18.5">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="15"/>
       <c r="B17" s="20"/>
       <c r="C17" s="25"/>
@@ -5703,7 +5712,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" ht="18.5">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="15"/>
       <c r="B18" s="20"/>
       <c r="C18" s="25"/>
@@ -5714,7 +5723,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" ht="18.5">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="15"/>
       <c r="B19" s="20"/>
       <c r="C19" s="25"/>
@@ -5725,7 +5734,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" ht="18.5">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="15"/>
       <c r="B20" s="20"/>
       <c r="C20" s="25"/>
@@ -5736,7 +5745,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" ht="18.5">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="15"/>
       <c r="B21" s="20"/>
       <c r="C21" s="25"/>
@@ -5747,7 +5756,7 @@
       <c r="H21" s="24"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" ht="18.5">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="15"/>
       <c r="B22" s="20"/>
       <c r="C22" s="25"/>
@@ -5758,7 +5767,7 @@
       <c r="H22" s="24"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="18.5">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="15"/>
       <c r="B23" s="20"/>
       <c r="C23" s="25"/>
@@ -5769,7 +5778,7 @@
       <c r="H23" s="24"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" ht="18.5">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="15"/>
       <c r="B24" s="20"/>
       <c r="C24" s="25"/>
@@ -5780,7 +5789,7 @@
       <c r="H24" s="24"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" ht="18.5">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="15"/>
       <c r="B25" s="20"/>
       <c r="C25" s="25"/>
@@ -5791,7 +5800,7 @@
       <c r="H25" s="24"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" ht="18.5">
+    <row r="26" spans="1:9" ht="18">
       <c r="A26" s="15"/>
       <c r="B26" s="20"/>
       <c r="C26" s="25"/>
@@ -5802,7 +5811,7 @@
       <c r="H26" s="24"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" ht="18.5">
+    <row r="27" spans="1:9" ht="18">
       <c r="A27" s="15"/>
       <c r="B27" s="20"/>
       <c r="C27" s="25"/>
@@ -5813,7 +5822,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="18.5">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="15"/>
       <c r="B28" s="20"/>
       <c r="C28" s="25"/>
@@ -5824,7 +5833,7 @@
       <c r="H28" s="24"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" ht="18.5">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="15"/>
       <c r="B29" s="20"/>
       <c r="C29" s="25"/>
@@ -5835,7 +5844,7 @@
       <c r="H29" s="24"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" ht="18.5">
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="15"/>
       <c r="B30" s="20"/>
       <c r="C30" s="25"/>
@@ -5846,7 +5855,7 @@
       <c r="H30" s="24"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" ht="18.5">
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="15"/>
       <c r="B31" s="20"/>
       <c r="C31" s="25"/>
@@ -5857,7 +5866,7 @@
       <c r="H31" s="24"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" ht="18.5">
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="15"/>
       <c r="B32" s="20"/>
       <c r="C32" s="25"/>
@@ -5868,7 +5877,7 @@
       <c r="H32" s="24"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="18.5">
+    <row r="33" spans="1:9" ht="18">
       <c r="A33" s="15"/>
       <c r="B33" s="20"/>
       <c r="C33" s="25"/>
@@ -5879,7 +5888,7 @@
       <c r="H33" s="24"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="18.5">
+    <row r="34" spans="1:9" ht="18">
       <c r="A34" s="15"/>
       <c r="B34" s="20"/>
       <c r="C34" s="25"/>
@@ -5890,7 +5899,7 @@
       <c r="H34" s="24"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" ht="18.5">
+    <row r="35" spans="1:9" ht="18">
       <c r="A35" s="15"/>
       <c r="B35" s="20"/>
       <c r="C35" s="25"/>
@@ -5901,7 +5910,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" ht="18.5">
+    <row r="36" spans="1:9" ht="18">
       <c r="A36" s="15"/>
       <c r="B36" s="20"/>
       <c r="C36" s="25"/>
@@ -5912,7 +5921,7 @@
       <c r="H36" s="24"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" ht="18.5">
+    <row r="37" spans="1:9" ht="18">
       <c r="A37" s="15"/>
       <c r="B37" s="20"/>
       <c r="C37" s="34"/>
@@ -5958,30 +5967,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="3.453125" customWidth="1"/>
-    <col min="8" max="8" width="43.54296875" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="37.25" customHeight="1">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:14" ht="37.200000000000003" customHeight="1">
+      <c r="B2" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="4" spans="2:14" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -5992,7 +6001,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:14" ht="13">
+    <row r="5" spans="2:14">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -6015,7 +6024,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" ht="13" thickBot="1">
+    <row r="6" spans="2:14" ht="13.8" thickBot="1">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6038,7 +6047,7 @@
       <c r="D7" s="4">
         <v>2025</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="49">
         <v>2.3090000000000002</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -6058,7 +6067,7 @@
       <c r="D8" s="6">
         <v>2025</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="50">
         <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -6078,7 +6087,7 @@
       <c r="D9" s="4">
         <v>2030</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="50">
         <v>2</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -6095,7 +6104,7 @@
       <c r="D10" s="6">
         <v>2035</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="50">
         <v>2</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -6112,7 +6121,7 @@
       <c r="D11" s="4">
         <v>2040</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="50">
         <v>2</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -6129,7 +6138,7 @@
       <c r="D12" s="6">
         <v>2045</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="50">
         <v>2</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -6146,7 +6155,7 @@
       <c r="D13" s="13">
         <v>2050</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="51">
         <v>2</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -6169,34 +6178,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91823456-5747-4864-8475-381C49851D3B}">
-  <dimension ref="B2:N12"/>
+  <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="3.453125" customWidth="1"/>
-    <col min="8" max="8" width="46.90625" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="36.65" customHeight="1">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:17" ht="36.6" customHeight="1">
+      <c r="B2" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-    </row>
-    <row r="4" spans="2:14" ht="18.75" customHeight="1">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+    </row>
+    <row r="4" spans="2:17" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6214,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:14" ht="13">
+    <row r="5" spans="2:17">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -6224,11 +6233,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="2:14" ht="13" thickBot="1">
+      <c r="P5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="13.8" thickBot="1">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6243,8 +6257,11 @@
       <c r="H6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="24" customHeight="1">
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="24" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -6260,11 +6277,20 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="24" customHeight="1">
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>2025</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="24" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -6274,15 +6300,30 @@
       <c r="D8" s="6">
         <v>2030</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="50">
         <v>5.9</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="2:14" ht="24" customHeight="1">
+      <c r="H8" s="62"/>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>2030</v>
+      </c>
+      <c r="M8">
+        <v>5.9</v>
+      </c>
+      <c r="P8">
+        <v>5.9</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="24" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -6292,15 +6333,27 @@
       <c r="D9" s="4">
         <v>2035</v>
       </c>
-      <c r="E9" s="61">
-        <v>4.7</v>
+      <c r="E9" s="50">
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="2:14" ht="24" customHeight="1">
+      <c r="H9" s="62"/>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>2035</v>
+      </c>
+      <c r="M9">
+        <v>4.7</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="24" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -6310,15 +6363,27 @@
       <c r="D10" s="6">
         <v>2040</v>
       </c>
-      <c r="E10" s="61">
-        <v>4.7</v>
+      <c r="E10" s="50">
+        <v>4</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="2:14" ht="24" customHeight="1">
+      <c r="H10" s="62"/>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>2040</v>
+      </c>
+      <c r="M10">
+        <v>4.7</v>
+      </c>
+      <c r="P10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="24" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -6328,15 +6393,27 @@
       <c r="D11" s="4">
         <v>2045</v>
       </c>
-      <c r="E11" s="61">
-        <v>8.85</v>
+      <c r="E11" s="50">
+        <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="2:14" ht="24" customHeight="1" thickBot="1">
+      <c r="H11" s="62"/>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>2045</v>
+      </c>
+      <c r="M11">
+        <v>8.85</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="24" customHeight="1" thickBot="1">
       <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
@@ -6346,13 +6423,25 @@
       <c r="D12" s="7">
         <v>2050</v>
       </c>
-      <c r="E12" s="62">
-        <v>8.85</v>
+      <c r="E12" s="51">
+        <v>8</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="62"/>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>2050</v>
+      </c>
+      <c r="M12">
+        <v>8.85</v>
+      </c>
+      <c r="P12">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6369,31 +6458,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59E0A-2AB4-4BA3-88F5-09A3CA18F5B1}">
   <dimension ref="B2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="24.90625" customWidth="1"/>
-    <col min="7" max="7" width="3.453125" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" customWidth="1"/>
-    <col min="9" max="9" width="4.90625" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="36" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="4" spans="2:11" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -6404,7 +6493,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:11" ht="13">
+    <row r="5" spans="2:11">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -6423,7 +6512,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" ht="13" thickBot="1">
+    <row r="6" spans="2:11" ht="13.8" thickBot="1">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6446,7 +6535,7 @@
       <c r="D7" s="4">
         <v>2025</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="49">
         <v>12.8</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -6467,7 +6556,7 @@
       <c r="D8" s="6">
         <v>2030</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="50">
         <v>3</v>
       </c>
       <c r="F8" s="12" t="s">
@@ -6488,7 +6577,7 @@
       <c r="D9" s="4">
         <v>2030</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="50">
         <v>5</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -6505,7 +6594,7 @@
       <c r="D10" s="6">
         <v>2035</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="50">
         <v>6</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -6522,7 +6611,7 @@
       <c r="D11" s="4">
         <v>2040</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="50">
         <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -6539,7 +6628,7 @@
       <c r="D12" s="6">
         <v>2045</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="50">
         <v>5</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -6556,7 +6645,7 @@
       <c r="D13" s="13">
         <v>2050</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="51">
         <v>5</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -6565,14 +6654,14 @@
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="16" spans="2:11" ht="34.25" customHeight="1">
-      <c r="B16" s="58" t="s">
+    <row r="16" spans="2:11" ht="34.200000000000003" customHeight="1">
+      <c r="B16" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1"/>
     <row r="18" spans="2:8" ht="18.75" customHeight="1">
@@ -6584,7 +6673,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:8" ht="13">
+    <row r="19" spans="2:8">
       <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
@@ -6601,7 +6690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="13" thickBot="1">
+    <row r="20" spans="2:8" ht="13.8" thickBot="1">
       <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
@@ -6624,7 +6713,7 @@
       <c r="D21" s="4">
         <v>2025</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="49">
         <v>5.4798000000000018</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -6644,7 +6733,7 @@
       <c r="D22" s="6">
         <v>2030</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="50">
         <v>1</v>
       </c>
       <c r="F22" s="12" t="s">
@@ -6664,7 +6753,7 @@
       <c r="D23" s="4">
         <v>2030</v>
       </c>
-      <c r="E23" s="61">
+      <c r="E23" s="50">
         <v>2</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -6681,7 +6770,7 @@
       <c r="D24" s="6">
         <v>2035</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="50">
         <v>3</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -6698,7 +6787,7 @@
       <c r="D25" s="4">
         <v>2040</v>
       </c>
-      <c r="E25" s="61">
+      <c r="E25" s="50">
         <v>3</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -6715,7 +6804,7 @@
       <c r="D26" s="6">
         <v>2045</v>
       </c>
-      <c r="E26" s="61">
+      <c r="E26" s="50">
         <v>2</v>
       </c>
       <c r="F26" s="12" t="s">
@@ -6732,7 +6821,7 @@
       <c r="D27" s="13">
         <v>2050</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="51">
         <v>2</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -6753,17 +6842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7006,7 +7084,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7015,18 +7093,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABF41A4-8FAC-4E37-9CAD-F995D34A31C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7045,10 +7123,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
+++ b/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759EDDB-C786-43AF-AC5D-42C575DB87B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2B926-F05B-43D4-AD41-86251E22063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -171,6 +171,12 @@
   <si>
     <t>FX?</t>
   </si>
+  <si>
+    <t>Stare</t>
+  </si>
+  <si>
+    <t>(bez zmian)</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +205,7 @@
     <numFmt numFmtId="182" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
     <numFmt numFmtId="183" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="110">
+  <fonts count="111">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -923,6 +929,13 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -3107,7 +3120,7 @@
     <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3223,6 +3236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1265">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6180,7 +6194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91823456-5747-4864-8475-381C49851D3B}">
   <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -6456,10 +6470,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59E0A-2AB4-4BA3-88F5-09A3CA18F5B1}">
-  <dimension ref="B2:K29"/>
+  <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6475,7 +6489,7 @@
     <col min="9" max="9" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="36" customHeight="1">
+    <row r="2" spans="2:19" ht="36" customHeight="1">
       <c r="B2" s="61" t="s">
         <v>35</v>
       </c>
@@ -6484,7 +6498,7 @@
       <c r="E2" s="61"/>
       <c r="F2" s="61"/>
     </row>
-    <row r="4" spans="2:11" ht="18.75" customHeight="1">
+    <row r="4" spans="2:19" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6493,7 +6507,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:19">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -6512,7 +6526,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="2:11" ht="13.8" thickBot="1">
+    <row r="6" spans="2:19" ht="13.8" thickBot="1">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6524,8 +6538,14 @@
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" ht="18.75" customHeight="1">
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="18.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6545,8 +6565,26 @@
         <v>37</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.75" customHeight="1">
+      <c r="M7">
+        <v>2025</v>
+      </c>
+      <c r="N7">
+        <v>12.8</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7">
+        <v>2025</v>
+      </c>
+      <c r="R7">
+        <v>12.8</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="18.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -6557,7 +6595,7 @@
         <v>2030</v>
       </c>
       <c r="E8" s="50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>15</v>
@@ -6566,8 +6604,26 @@
         <v>38</v>
       </c>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" ht="18.75" customHeight="1">
+      <c r="M8">
+        <v>2030</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <v>2030</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="18.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -6578,13 +6634,31 @@
         <v>2030</v>
       </c>
       <c r="E9" s="50">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" ht="18.75" customHeight="1">
+      <c r="M9">
+        <v>2030</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>2030</v>
+      </c>
+      <c r="R9">
+        <v>3.5</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="18.75" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -6595,13 +6669,31 @@
         <v>2035</v>
       </c>
       <c r="E10" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" ht="18.75" customHeight="1">
+      <c r="M10">
+        <v>2035</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>2035</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="18.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -6612,13 +6704,31 @@
         <v>2040</v>
       </c>
       <c r="E11" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="18.75" customHeight="1">
+      <c r="M11">
+        <v>2040</v>
+      </c>
+      <c r="N11">
+        <v>6</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <v>2040</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="18.75" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -6629,13 +6739,31 @@
         <v>2045</v>
       </c>
       <c r="E12" s="50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="M12">
+        <v>2045</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12">
+        <v>2045</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
@@ -6646,15 +6774,33 @@
         <v>2050</v>
       </c>
       <c r="E13" s="51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="16" spans="2:11" ht="34.200000000000003" customHeight="1">
+      <c r="M13">
+        <v>2050</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <v>2050</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="15" spans="2:19" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:19" ht="34.200000000000003" customHeight="1">
       <c r="B16" s="61" t="s">
         <v>36</v>
       </c>
@@ -6663,8 +6809,8 @@
       <c r="E16" s="61"/>
       <c r="F16" s="61"/>
     </row>
-    <row r="17" spans="2:8" ht="12.75" customHeight="1"/>
-    <row r="18" spans="2:8" ht="18.75" customHeight="1">
+    <row r="17" spans="2:19" ht="12.75" customHeight="1"/>
+    <row r="18" spans="2:19" ht="18.75" customHeight="1">
       <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6819,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:19">
       <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
@@ -6689,8 +6835,11 @@
       <c r="F19" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="13.8" thickBot="1">
+      <c r="R19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="13.8" thickBot="1">
       <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
@@ -6702,8 +6851,14 @@
       <c r="F20" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="18.75" customHeight="1">
+      <c r="N20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="18.75" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
@@ -6722,8 +6877,26 @@
       <c r="H21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.75" customHeight="1">
+      <c r="M21">
+        <v>2025</v>
+      </c>
+      <c r="N21">
+        <v>5.4798</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>2025</v>
+      </c>
+      <c r="R21">
+        <v>5.4798</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="18.75" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>12</v>
       </c>
@@ -6742,8 +6915,26 @@
       <c r="H22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="18.75" customHeight="1">
+      <c r="M22">
+        <v>2030</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>2030</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" ht="18.75" customHeight="1">
       <c r="B23" s="4" t="s">
         <v>7</v>
       </c>
@@ -6759,8 +6950,26 @@
       <c r="F23" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="18.75" customHeight="1">
+      <c r="M23">
+        <v>2030</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>2030</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" ht="18.75" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>7</v>
       </c>
@@ -6776,8 +6985,26 @@
       <c r="F24" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="18.75" customHeight="1">
+      <c r="M24">
+        <v>2035</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24">
+        <v>2035</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" ht="18.75" customHeight="1">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
@@ -6793,8 +7020,26 @@
       <c r="F25" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="18.75" customHeight="1">
+      <c r="M25">
+        <v>2040</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>2040</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" ht="18.75" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
@@ -6810,8 +7055,26 @@
       <c r="F26" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="18.75" customHeight="1" thickBot="1">
+      <c r="M26">
+        <v>2045</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>2045</v>
+      </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="18.75" customHeight="1" thickBot="1">
       <c r="B27" s="13" t="s">
         <v>7</v>
       </c>
@@ -6827,9 +7090,27 @@
       <c r="F27" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="14.25" customHeight="1"/>
-    <row r="29" spans="2:8" ht="30" customHeight="1"/>
+      <c r="M27">
+        <v>2050</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27">
+        <v>2050</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" ht="14.25" customHeight="1"/>
+    <row r="29" spans="2:19" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:F2"/>
@@ -6842,6 +7123,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7084,27 +7385,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABF41A4-8FAC-4E37-9CAD-F995D34A31C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7121,23 +7421,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
+++ b/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2B926-F05B-43D4-AD41-86251E22063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27087916-9CEF-4033-90BB-0214069EA55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -3203,6 +3203,7 @@
     <xf numFmtId="0" fontId="101" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="101" fillId="48" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="106" fillId="45" borderId="0" xfId="1261" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3236,7 +3237,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1265">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5093,9 +5093,9 @@
       <c r="A6" s="15"/>
       <c r="B6" s="20"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="J6" s="26"/>
       <c r="K6" s="24"/>
       <c r="L6" s="15"/>
@@ -5116,9 +5116,9 @@
       <c r="A8" s="15"/>
       <c r="B8" s="20"/>
       <c r="C8" s="25"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
       <c r="J8" s="26"/>
       <c r="K8" s="24"/>
       <c r="L8" s="15"/>
@@ -5167,15 +5167,15 @@
       <c r="A14" s="15"/>
       <c r="B14" s="20"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="55" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
       <c r="J14" s="26"/>
       <c r="K14" s="24"/>
       <c r="L14" s="15"/>
@@ -5186,9 +5186,9 @@
       <c r="C15" s="25"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
       <c r="J15" s="26"/>
       <c r="K15" s="24"/>
       <c r="L15" s="15"/>
@@ -5213,16 +5213,16 @@
       <c r="A18" s="15"/>
       <c r="B18" s="20"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="56" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="26"/>
       <c r="K18" s="24"/>
       <c r="L18" s="15"/>
@@ -5233,10 +5233,10 @@
       <c r="C19" s="25"/>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="26"/>
       <c r="K19" s="24"/>
       <c r="L19" s="15"/>
@@ -5247,10 +5247,10 @@
       <c r="C20" s="25"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
       <c r="J20" s="26"/>
       <c r="K20" s="24"/>
       <c r="L20" s="15"/>
@@ -5270,10 +5270,10 @@
       <c r="A22" s="15"/>
       <c r="B22" s="20"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="53"/>
       <c r="F22" s="32">
         <v>45078</v>
       </c>
@@ -5351,10 +5351,10 @@
       <c r="A28" s="15"/>
       <c r="B28" s="20"/>
       <c r="C28" s="25"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="16" t="s">
         <v>24</v>
       </c>
@@ -5393,10 +5393,10 @@
       <c r="A32" s="15"/>
       <c r="B32" s="20"/>
       <c r="C32" s="25"/>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="16" t="s">
         <v>24</v>
       </c>
@@ -5568,11 +5568,11 @@
       <c r="A4" s="15"/>
       <c r="B4" s="20"/>
       <c r="C4" s="25"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="26"/>
       <c r="H4" s="24"/>
       <c r="I4" s="15"/>
@@ -5592,11 +5592,11 @@
       <c r="A6" s="15"/>
       <c r="B6" s="20"/>
       <c r="C6" s="25"/>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="26"/>
       <c r="H6" s="24"/>
       <c r="I6" s="15"/>
@@ -5979,10 +5979,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5997,16 +5997,16 @@
     <col min="8" max="8" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="37.200000000000003" customHeight="1">
-      <c r="B2" s="61" t="s">
+    <row r="2" spans="2:17" ht="37.200000000000003" customHeight="1">
+      <c r="B2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-    </row>
-    <row r="4" spans="2:14" ht="18.75" customHeight="1">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="4" spans="2:17" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
@@ -6015,7 +6015,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:17">
       <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
@@ -6038,7 +6038,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="2:14" ht="13.8" thickBot="1">
+    <row r="6" spans="2:17" ht="13.8" thickBot="1">
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
@@ -6050,8 +6050,14 @@
       <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" ht="18.75" customHeight="1">
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="18.75" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6062,7 +6068,7 @@
         <v>2025</v>
       </c>
       <c r="E7" s="49">
-        <v>2.3090000000000002</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
@@ -6070,8 +6076,26 @@
       <c r="H7" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" ht="18.75" customHeight="1">
+      <c r="K7">
+        <v>2025</v>
+      </c>
+      <c r="L7">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7">
+        <v>2025</v>
+      </c>
+      <c r="P7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="18.75" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -6082,7 +6106,7 @@
         <v>2025</v>
       </c>
       <c r="E8" s="50">
-        <v>2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>11</v>
@@ -6090,8 +6114,26 @@
       <c r="H8" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="18.75" customHeight="1">
+      <c r="K8">
+        <v>2025</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>2025</v>
+      </c>
+      <c r="P8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="18.75" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
@@ -6107,8 +6149,26 @@
       <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="18.75" customHeight="1">
+      <c r="K9">
+        <v>2030</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>2030</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" ht="18.75" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
@@ -6124,8 +6184,26 @@
       <c r="F10" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" ht="18.75" customHeight="1">
+      <c r="K10">
+        <v>2035</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>2035</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="18.75" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -6141,8 +6219,26 @@
       <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1">
+      <c r="K11">
+        <v>2040</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>2040</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="18.75" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
@@ -6158,8 +6254,26 @@
       <c r="F12" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1" thickBot="1">
+      <c r="K12">
+        <v>2045</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>2045</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="18.75" customHeight="1" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>7</v>
       </c>
@@ -6175,8 +6289,26 @@
       <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" ht="153" customHeight="1">
+      <c r="K13">
+        <v>2050</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>2050</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="153" customHeight="1">
       <c r="H16" s="2"/>
     </row>
   </sheetData>
@@ -6211,13 +6343,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="36.6" customHeight="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="2:17" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -6291,7 +6423,7 @@
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="63" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -6320,7 +6452,7 @@
       <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="63"/>
       <c r="K8" s="1" t="s">
         <v>7</v>
       </c>
@@ -6353,7 +6485,7 @@
       <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="62"/>
+      <c r="H9" s="63"/>
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6383,7 +6515,7 @@
       <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="62"/>
+      <c r="H10" s="63"/>
       <c r="K10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6413,7 +6545,7 @@
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="62"/>
+      <c r="H11" s="63"/>
       <c r="K11" s="1" t="s">
         <v>7</v>
       </c>
@@ -6443,7 +6575,7 @@
       <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="K12" s="1" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59E0A-2AB4-4BA3-88F5-09A3CA18F5B1}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -6490,13 +6622,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="36" customHeight="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="4" spans="2:19" ht="18.75" customHeight="1">
       <c r="B4" s="8" t="s">
@@ -6541,7 +6673,7 @@
       <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="63" t="s">
+      <c r="R6" s="52" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6801,13 +6933,13 @@
     <row r="14" spans="2:19" ht="15.75" customHeight="1"/>
     <row r="15" spans="2:19" ht="15.75" customHeight="1"/>
     <row r="16" spans="2:19" ht="34.200000000000003" customHeight="1">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="2:19" ht="12.75" customHeight="1"/>
     <row r="18" spans="2:19" ht="18.75" customHeight="1">
@@ -7134,15 +7266,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7385,6 +7508,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
@@ -7397,14 +7529,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABF41A4-8FAC-4E37-9CAD-F995D34A31C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7421,4 +7545,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
+++ b/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27087916-9CEF-4033-90BB-0214069EA55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8982E-156D-42EB-91D6-DA8C02AE84DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="45">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -166,16 +166,16 @@
     <t>Stara wersja</t>
   </si>
   <si>
-    <t>Propozycja</t>
-  </si>
-  <si>
-    <t>FX?</t>
-  </si>
-  <si>
     <t>Stare</t>
   </si>
   <si>
     <t>(bez zmian)</t>
+  </si>
+  <si>
+    <t>MojeBAZOWY</t>
+  </si>
+  <si>
+    <t>MojeBazowy</t>
   </si>
 </sst>
 </file>
@@ -5982,7 +5982,7 @@
   <dimension ref="B2:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6051,10 +6051,10 @@
         <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="52" t="s">
         <v>43</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="18.75" customHeight="1">
@@ -6327,7 +6327,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6384,8 +6384,8 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>41</v>
+      <c r="P5" s="52" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="13.8" thickBot="1">
@@ -6406,6 +6406,9 @@
       <c r="M6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="Q6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="2:17" ht="24" customHeight="1">
       <c r="B7" s="4" t="s">
@@ -6435,6 +6438,15 @@
       <c r="M7">
         <v>0</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7">
+        <v>2025</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="2:17" ht="24" customHeight="1">
       <c r="B8" s="6" t="s">
@@ -6462,11 +6474,14 @@
       <c r="M8">
         <v>5.9</v>
       </c>
+      <c r="O8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="P8">
+        <v>2030</v>
+      </c>
+      <c r="Q8">
         <v>5.9</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="24" customHeight="1">
@@ -6495,7 +6510,13 @@
       <c r="M9">
         <v>4.7</v>
       </c>
+      <c r="O9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="P9">
+        <v>2035</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
     </row>
@@ -6525,7 +6546,13 @@
       <c r="M10">
         <v>4.7</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="P10">
+        <v>2040</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
       </c>
     </row>
@@ -6555,7 +6582,13 @@
       <c r="M11">
         <v>8.85</v>
       </c>
-      <c r="P11" s="1">
+      <c r="O11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11">
+        <v>2045</v>
+      </c>
+      <c r="Q11" s="1">
         <v>7</v>
       </c>
     </row>
@@ -6585,7 +6618,13 @@
       <c r="M12">
         <v>8.85</v>
       </c>
+      <c r="O12" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="P12">
+        <v>2050</v>
+      </c>
+      <c r="Q12">
         <v>8</v>
       </c>
     </row>
@@ -6604,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C59E0A-2AB4-4BA3-88F5-09A3CA18F5B1}">
   <dimension ref="B2:S29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6671,10 +6710,10 @@
         <v>10</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R6" s="52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="18.75" customHeight="1">
@@ -6968,7 +7007,7 @@
         <v>4</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="13.8" thickBot="1">
@@ -6984,10 +7023,10 @@
         <v>10</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R20" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="R20" s="52" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:19" ht="18.75" customHeight="1">
@@ -7266,6 +7305,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -7508,15 +7556,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
@@ -7529,6 +7568,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABF41A4-8FAC-4E37-9CAD-F995D34A31C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7545,12 +7592,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
+++ b/SuppXLS/Scen_NCAP_OZE_BEZP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8982E-156D-42EB-91D6-DA8C02AE84DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67BC58D-F6C9-4FC8-9784-27E29D25B039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5981,8 +5981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6144,7 +6144,7 @@
         <v>2030</v>
       </c>
       <c r="E9" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>11</v>
@@ -6162,7 +6162,7 @@
         <v>2030</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>7</v>
@@ -6179,7 +6179,7 @@
         <v>2035</v>
       </c>
       <c r="E10" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>11</v>
@@ -6197,7 +6197,7 @@
         <v>2035</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>7</v>
@@ -6214,7 +6214,7 @@
         <v>2040</v>
       </c>
       <c r="E11" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>11</v>
@@ -6232,7 +6232,7 @@
         <v>2040</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>7</v>
@@ -6249,7 +6249,7 @@
         <v>2045</v>
       </c>
       <c r="E12" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>11</v>
@@ -6267,7 +6267,7 @@
         <v>2045</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>7</v>
@@ -6284,7 +6284,7 @@
         <v>2050</v>
       </c>
       <c r="E13" s="51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>11</v>
@@ -6302,7 +6302,7 @@
         <v>2050</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>7</v>
@@ -6326,8 +6326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91823456-5747-4864-8475-381C49851D3B}">
   <dimension ref="B2:Q12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6495,7 +6495,7 @@
         <v>2035</v>
       </c>
       <c r="E9" s="50">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
@@ -6517,7 +6517,7 @@
         <v>2035</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10" spans="2:17" ht="24" customHeight="1">
@@ -6531,7 +6531,7 @@
         <v>2040</v>
       </c>
       <c r="E10" s="50">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>17</v>
@@ -6553,7 +6553,7 @@
         <v>2040</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="24" customHeight="1">
@@ -7294,6 +7294,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
@@ -7302,15 +7311,6 @@
     <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7557,20 +7557,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649AD989-B6CB-4FED-8047-EB042A898C41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
